--- a/data/2020-07-16/texas.xlsx
+++ b/data/2020-07-16/texas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mturner340\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E49A242-14C3-43E8-86DA-DC3CA1476558}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{414FA2BF-17DE-456F-9D18-1CC496AC50A0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29994" windowHeight="9396" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,12 @@
     <sheet name="Fatalities by Gender" sheetId="13" r:id="rId13"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="342">
   <si>
     <t>COVID-19 Cases and Fatalities by County as of 7/16 at 10:45AM CST</t>
   </si>
@@ -1068,6 +1068,15 @@
   </si>
   <si>
     <t>06/16/2020-TDCJ*</t>
+  </si>
+  <si>
+    <t>** Texas is reporting 10,791 new confirmed COVID-19 cases for Wednesday, July 15. The San Antonio Metro Health District has clarified its reporting to separate confirmed and probable cases, so the Bexar County and statewide totals were updated to remove 3,484 probable cases. The local case count previously included probable cases identified by antigen testing but not those from antibody testing or other sources.</t>
+  </si>
+  <si>
+    <t>07/15/2020-SA**</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -1079,12 +1088,12 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="#########0"/>
     <numFmt numFmtId="167" formatCode="#,###,###,##0"/>
-    <numFmt numFmtId="172" formatCode="##,###,##0"/>
-    <numFmt numFmtId="173" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="175" formatCode="##0"/>
-    <numFmt numFmtId="176" formatCode="########.0&quot;%&quot;_);\(########.0&quot;%&quot;\)"/>
+    <numFmt numFmtId="168" formatCode="##,###,##0"/>
+    <numFmt numFmtId="169" formatCode="###,###,###,###,##0"/>
+    <numFmt numFmtId="170" formatCode="##0"/>
+    <numFmt numFmtId="171" formatCode="########.0&quot;%&quot;_);\(########.0&quot;%&quot;\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -1111,6 +1120,12 @@
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF112277"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1182,7 +1197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1210,17 +1225,32 @@
     <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1231,17 +1261,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1384,21 +1405,21 @@
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1409,7 +1430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1420,7 +1441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1431,7 +1452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1442,7 +1463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1453,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1464,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1475,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1486,7 +1507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1497,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1508,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1519,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1530,7 +1551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1541,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1552,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -1563,7 +1584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -1574,7 +1595,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -1585,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1596,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1607,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -1618,7 +1639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -1629,7 +1650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -1640,7 +1661,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -1651,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -1662,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1673,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -1684,7 +1705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -1695,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -1706,7 +1727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -1717,7 +1738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -1728,7 +1749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -1739,7 +1760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -1750,7 +1771,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -1761,7 +1782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -1772,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -1783,7 +1804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -1794,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -1805,7 +1826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -1816,7 +1837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -1827,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
@@ -1838,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
@@ -1849,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
@@ -1860,7 +1881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
@@ -1871,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
@@ -1882,7 +1903,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
@@ -1893,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
@@ -1904,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
@@ -1915,7 +1936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -1926,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
@@ -1937,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -1948,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
@@ -1959,7 +1980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
@@ -1970,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
@@ -1981,7 +2002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -1992,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -2003,7 +2024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -2014,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
@@ -2025,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
@@ -2036,7 +2057,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>61</v>
       </c>
@@ -2047,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
@@ -2058,7 +2079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
@@ -2069,7 +2090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
@@ -2080,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
@@ -2091,7 +2112,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
@@ -2102,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>67</v>
       </c>
@@ -2113,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>68</v>
       </c>
@@ -2124,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
@@ -2135,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>70</v>
       </c>
@@ -2146,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>71</v>
       </c>
@@ -2157,7 +2178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>72</v>
       </c>
@@ -2168,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>73</v>
       </c>
@@ -2179,7 +2200,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>74</v>
       </c>
@@ -2190,7 +2211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>75</v>
       </c>
@@ -2201,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>76</v>
       </c>
@@ -2212,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>77</v>
       </c>
@@ -2223,7 +2244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
@@ -2234,7 +2255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -2245,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
@@ -2256,7 +2277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -2267,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
@@ -2278,7 +2299,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -2289,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
@@ -2300,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
@@ -2311,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
@@ -2322,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
@@ -2333,7 +2354,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
@@ -2344,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
@@ -2355,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
@@ -2366,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
@@ -2377,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
@@ -2388,7 +2409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>93</v>
       </c>
@@ -2399,7 +2420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>94</v>
       </c>
@@ -2410,7 +2431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>95</v>
       </c>
@@ -2421,7 +2442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>96</v>
       </c>
@@ -2432,7 +2453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>97</v>
       </c>
@@ -2443,7 +2464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>98</v>
       </c>
@@ -2454,7 +2475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>99</v>
       </c>
@@ -2465,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>100</v>
       </c>
@@ -2476,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>101</v>
       </c>
@@ -2487,7 +2508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>102</v>
       </c>
@@ -2498,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>103</v>
       </c>
@@ -2509,7 +2530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>104</v>
       </c>
@@ -2520,7 +2541,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>105</v>
       </c>
@@ -2531,7 +2552,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>106</v>
       </c>
@@ -2542,7 +2563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
@@ -2553,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>108</v>
       </c>
@@ -2564,7 +2585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>109</v>
       </c>
@@ -2575,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>110</v>
       </c>
@@ -2586,7 +2607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>111</v>
       </c>
@@ -2597,7 +2618,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>112</v>
       </c>
@@ -2608,7 +2629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>113</v>
       </c>
@@ -2619,7 +2640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>114</v>
       </c>
@@ -2630,7 +2651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>115</v>
       </c>
@@ -2641,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>116</v>
       </c>
@@ -2652,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>117</v>
       </c>
@@ -2663,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>118</v>
       </c>
@@ -2674,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>119</v>
       </c>
@@ -2685,7 +2706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>120</v>
       </c>
@@ -2696,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>121</v>
       </c>
@@ -2707,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>122</v>
       </c>
@@ -2718,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>123</v>
       </c>
@@ -2729,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>124</v>
       </c>
@@ -2740,7 +2761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>125</v>
       </c>
@@ -2751,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>126</v>
       </c>
@@ -2762,7 +2783,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>127</v>
       </c>
@@ -2773,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>128</v>
       </c>
@@ -2784,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>129</v>
       </c>
@@ -2795,7 +2816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>130</v>
       </c>
@@ -2806,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>131</v>
       </c>
@@ -2817,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>132</v>
       </c>
@@ -2828,7 +2849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>133</v>
       </c>
@@ -2839,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>134</v>
       </c>
@@ -2850,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>135</v>
       </c>
@@ -2861,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>136</v>
       </c>
@@ -2872,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>137</v>
       </c>
@@ -2883,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>138</v>
       </c>
@@ -2894,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>139</v>
       </c>
@@ -2905,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>140</v>
       </c>
@@ -2916,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>141</v>
       </c>
@@ -2927,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>142</v>
       </c>
@@ -2938,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>143</v>
       </c>
@@ -2949,7 +2970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>144</v>
       </c>
@@ -2960,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>145</v>
       </c>
@@ -2971,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>146</v>
       </c>
@@ -2982,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>147</v>
       </c>
@@ -2993,7 +3014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>148</v>
       </c>
@@ -3004,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>149</v>
       </c>
@@ -3015,7 +3036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>150</v>
       </c>
@@ -3026,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>151</v>
       </c>
@@ -3037,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>152</v>
       </c>
@@ -3048,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>153</v>
       </c>
@@ -3059,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>154</v>
       </c>
@@ -3070,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>155</v>
       </c>
@@ -3081,7 +3102,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>156</v>
       </c>
@@ -3092,7 +3113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>157</v>
       </c>
@@ -3103,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>158</v>
       </c>
@@ -3114,7 +3135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>159</v>
       </c>
@@ -3125,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>160</v>
       </c>
@@ -3136,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>161</v>
       </c>
@@ -3147,7 +3168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>162</v>
       </c>
@@ -3158,7 +3179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>163</v>
       </c>
@@ -3169,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>164</v>
       </c>
@@ -3180,7 +3201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>165</v>
       </c>
@@ -3191,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>166</v>
       </c>
@@ -3202,7 +3223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>167</v>
       </c>
@@ -3213,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>168</v>
       </c>
@@ -3224,7 +3245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>169</v>
       </c>
@@ -3235,7 +3256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>170</v>
       </c>
@@ -3246,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>171</v>
       </c>
@@ -3257,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>172</v>
       </c>
@@ -3268,7 +3289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>173</v>
       </c>
@@ -3279,7 +3300,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>174</v>
       </c>
@@ -3290,7 +3311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>175</v>
       </c>
@@ -3301,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>176</v>
       </c>
@@ -3312,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>177</v>
       </c>
@@ -3323,7 +3344,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>178</v>
       </c>
@@ -3334,7 +3355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>179</v>
       </c>
@@ -3345,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>180</v>
       </c>
@@ -3356,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>181</v>
       </c>
@@ -3367,7 +3388,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>182</v>
       </c>
@@ -3378,7 +3399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>183</v>
       </c>
@@ -3389,7 +3410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>184</v>
       </c>
@@ -3400,7 +3421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>185</v>
       </c>
@@ -3411,7 +3432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>186</v>
       </c>
@@ -3422,7 +3443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>187</v>
       </c>
@@ -3433,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>188</v>
       </c>
@@ -3444,7 +3465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>189</v>
       </c>
@@ -3455,7 +3476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>190</v>
       </c>
@@ -3466,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>191</v>
       </c>
@@ -3477,7 +3498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>192</v>
       </c>
@@ -3488,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>193</v>
       </c>
@@ -3499,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>194</v>
       </c>
@@ -3510,7 +3531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>195</v>
       </c>
@@ -3521,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>196</v>
       </c>
@@ -3532,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>197</v>
       </c>
@@ -3543,7 +3564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>198</v>
       </c>
@@ -3554,7 +3575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>199</v>
       </c>
@@ -3565,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>200</v>
       </c>
@@ -3576,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>201</v>
       </c>
@@ -3587,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>202</v>
       </c>
@@ -3598,7 +3619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>203</v>
       </c>
@@ -3609,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>204</v>
       </c>
@@ -3620,7 +3641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>205</v>
       </c>
@@ -3631,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>206</v>
       </c>
@@ -3642,7 +3663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>207</v>
       </c>
@@ -3653,7 +3674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>208</v>
       </c>
@@ -3664,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>209</v>
       </c>
@@ -3675,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>210</v>
       </c>
@@ -3686,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>211</v>
       </c>
@@ -3697,7 +3718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>212</v>
       </c>
@@ -3708,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>213</v>
       </c>
@@ -3719,7 +3740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>214</v>
       </c>
@@ -3730,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>215</v>
       </c>
@@ -3741,7 +3762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>216</v>
       </c>
@@ -3752,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>217</v>
       </c>
@@ -3763,7 +3784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>218</v>
       </c>
@@ -3774,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>219</v>
       </c>
@@ -3785,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>220</v>
       </c>
@@ -3796,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>221</v>
       </c>
@@ -3807,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>222</v>
       </c>
@@ -3818,7 +3839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>223</v>
       </c>
@@ -3829,7 +3850,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>224</v>
       </c>
@@ -3840,7 +3861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>225</v>
       </c>
@@ -3851,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>226</v>
       </c>
@@ -3862,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>227</v>
       </c>
@@ -3873,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>228</v>
       </c>
@@ -3884,7 +3905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>229</v>
       </c>
@@ -3895,7 +3916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>230</v>
       </c>
@@ -3906,7 +3927,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>231</v>
       </c>
@@ -3917,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>232</v>
       </c>
@@ -3928,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>233</v>
       </c>
@@ -3939,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>234</v>
       </c>
@@ -3950,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>235</v>
       </c>
@@ -3961,7 +3982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>236</v>
       </c>
@@ -3972,7 +3993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>237</v>
       </c>
@@ -3983,7 +4004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>238</v>
       </c>
@@ -3994,7 +4015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>239</v>
       </c>
@@ -4005,7 +4026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>240</v>
       </c>
@@ -4016,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>241</v>
       </c>
@@ -4027,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>242</v>
       </c>
@@ -4038,7 +4059,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>243</v>
       </c>
@@ -4049,7 +4070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>244</v>
       </c>
@@ -4060,7 +4081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>245</v>
       </c>
@@ -4071,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>246</v>
       </c>
@@ -4082,7 +4103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>247</v>
       </c>
@@ -4093,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>248</v>
       </c>
@@ -4104,7 +4125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>249</v>
       </c>
@@ -4115,7 +4136,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>250</v>
       </c>
@@ -4126,7 +4147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>251</v>
       </c>
@@ -4137,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>252</v>
       </c>
@@ -4148,7 +4169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>253</v>
       </c>
@@ -4159,7 +4180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>254</v>
       </c>
@@ -4170,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>255</v>
       </c>
@@ -4181,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>256</v>
       </c>
@@ -4192,7 +4213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>257</v>
       </c>
@@ -4203,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>258</v>
       </c>
@@ -4214,12 +4235,12 @@
         <v>3561</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A259" s="15" t="s">
+    <row r="259" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B259" s="14"/>
-      <c r="C259" s="14"/>
+      <c r="B259" s="19"/>
+      <c r="C259" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4241,21 +4262,21 @@
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>324</v>
       </c>
@@ -4266,70 +4287,70 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="11">
         <v>12852</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>47.706013362999997</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>326</v>
       </c>
       <c r="B4" s="11">
         <v>13723</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>50.939123979000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B5" s="11">
         <v>365</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>1.3548626578</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="11">
         <v>26940</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="15" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:3" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4353,21 +4374,21 @@
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>328</v>
       </c>
@@ -4378,103 +4399,103 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B3" s="11">
         <v>654</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>2.4276169264999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B4" s="11">
         <v>3061</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>11.362286563</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B5" s="11">
         <v>10891</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>40.426874536</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B6" s="11">
         <v>137</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>0.50853749069999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B7" s="11">
         <v>6641</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>24.651076465999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B8" s="11">
         <v>5556</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>20.623608017999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B9" s="11">
         <v>26940</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="1:3" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="15" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-    </row>
-    <row r="13" spans="1:3" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="15" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4498,21 +4519,21 @@
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:3" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>305</v>
       </c>
@@ -4523,180 +4544,180 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>308</v>
       </c>
       <c r="B3" s="12">
         <v>0</v>
       </c>
-      <c r="C3" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>309</v>
       </c>
       <c r="B4" s="12">
         <v>0</v>
       </c>
-      <c r="C4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>310</v>
       </c>
       <c r="B5" s="12">
         <v>0</v>
       </c>
-      <c r="C5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>311</v>
       </c>
       <c r="B6" s="12">
         <v>4</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>0.54421768709999996</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>312</v>
       </c>
       <c r="B7" s="12">
         <v>12</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>1.6326530612000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>313</v>
       </c>
       <c r="B8" s="12">
         <v>28</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>3.8095238094999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B9" s="12">
         <v>77</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>10.476190475999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>315</v>
       </c>
       <c r="B10" s="12">
         <v>76</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>10.340136054</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>316</v>
       </c>
       <c r="B11" s="12">
         <v>84</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>11.428571429</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B12" s="12">
         <v>79</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>10.748299319999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>318</v>
       </c>
       <c r="B13" s="12">
         <v>87</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>11.836734694</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>319</v>
       </c>
       <c r="B14" s="12">
         <v>288</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <v>39.183673468999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B15" s="12">
         <v>0</v>
       </c>
-      <c r="C15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B16" s="12">
         <v>735</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="1:3" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="15" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-    </row>
-    <row r="20" spans="1:3" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="15" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4720,21 +4741,21 @@
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>324</v>
       </c>
@@ -4745,70 +4766,70 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="12">
         <v>303</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>41.224489796</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>326</v>
       </c>
       <c r="B4" s="12">
         <v>431</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>58.639455781999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>0.13605442179999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="12">
         <v>735</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="15" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:3" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4832,21 +4853,21 @@
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>328</v>
       </c>
@@ -4857,103 +4878,103 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B3" s="11">
         <v>15</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>2.0408163264999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B4" s="11">
         <v>95</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>12.925170068</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B5" s="11">
         <v>214</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>29.115646258999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>0.13605442179999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B7" s="11">
         <v>317</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>43.129251701000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B8" s="11">
         <v>93</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>12.653061224</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B9" s="11">
         <v>735</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="1:3" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="15" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-    </row>
-    <row r="13" spans="1:3" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="15" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4969,41 +4990,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E24" sqref="E24"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E2"/>
+      <selection pane="bottomLeft" activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>262</v>
       </c>
@@ -5020,7 +5041,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43916</v>
       </c>
@@ -5037,7 +5058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43917</v>
       </c>
@@ -5054,7 +5075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43918</v>
       </c>
@@ -5071,7 +5092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43919</v>
       </c>
@@ -5088,7 +5109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43920</v>
       </c>
@@ -5105,7 +5126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43921</v>
       </c>
@@ -5122,7 +5143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43922</v>
       </c>
@@ -5139,7 +5160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43923</v>
       </c>
@@ -5156,7 +5177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43924</v>
       </c>
@@ -5173,7 +5194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>43925</v>
       </c>
@@ -5190,7 +5211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43926</v>
       </c>
@@ -5207,7 +5228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>43927</v>
       </c>
@@ -5224,7 +5245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43928</v>
       </c>
@@ -5241,7 +5262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43929</v>
       </c>
@@ -5258,7 +5279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43930</v>
       </c>
@@ -5275,7 +5296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43931</v>
       </c>
@@ -5292,7 +5313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43932</v>
       </c>
@@ -5309,7 +5330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43933</v>
       </c>
@@ -5326,7 +5347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43934</v>
       </c>
@@ -5343,7 +5364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43935</v>
       </c>
@@ -5360,7 +5381,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43936</v>
       </c>
@@ -5377,7 +5398,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>43937</v>
       </c>
@@ -5394,7 +5415,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>43938</v>
       </c>
@@ -5411,7 +5432,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>43939</v>
       </c>
@@ -5428,7 +5449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43940</v>
       </c>
@@ -5445,7 +5466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>43941</v>
       </c>
@@ -5462,7 +5483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43942</v>
       </c>
@@ -5479,7 +5500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>43943</v>
       </c>
@@ -5496,7 +5517,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43944</v>
       </c>
@@ -5513,7 +5534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>43945</v>
       </c>
@@ -5530,7 +5551,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>43946</v>
       </c>
@@ -5547,7 +5568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>43947</v>
       </c>
@@ -5564,7 +5585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43948</v>
       </c>
@@ -5581,7 +5602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>43949</v>
       </c>
@@ -5598,7 +5619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>43950</v>
       </c>
@@ -5615,7 +5636,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>43951</v>
       </c>
@@ -5632,7 +5653,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43952</v>
       </c>
@@ -5649,7 +5670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>43953</v>
       </c>
@@ -5666,7 +5687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43954</v>
       </c>
@@ -5683,7 +5704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43955</v>
       </c>
@@ -5700,7 +5721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43956</v>
       </c>
@@ -5717,7 +5738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>43957</v>
       </c>
@@ -5734,7 +5755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>43958</v>
       </c>
@@ -5751,7 +5772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>43959</v>
       </c>
@@ -5768,7 +5789,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>43960</v>
       </c>
@@ -5785,7 +5806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>43961</v>
       </c>
@@ -5802,7 +5823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>43962</v>
       </c>
@@ -5819,7 +5840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>43963</v>
       </c>
@@ -5836,7 +5857,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>43964</v>
       </c>
@@ -5853,7 +5874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>43965</v>
       </c>
@@ -5870,7 +5891,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>43966</v>
       </c>
@@ -5887,7 +5908,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>43967</v>
       </c>
@@ -5904,7 +5925,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>43968</v>
       </c>
@@ -5921,7 +5942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>43969</v>
       </c>
@@ -5938,7 +5959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>43970</v>
       </c>
@@ -5955,7 +5976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>43971</v>
       </c>
@@ -5972,7 +5993,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>43972</v>
       </c>
@@ -5989,7 +6010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>43973</v>
       </c>
@@ -6006,7 +6027,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>43974</v>
       </c>
@@ -6023,7 +6044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>43975</v>
       </c>
@@ -6040,7 +6061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>43976</v>
       </c>
@@ -6057,7 +6078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>43977</v>
       </c>
@@ -6074,7 +6095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>43978</v>
       </c>
@@ -6091,7 +6112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>43979</v>
       </c>
@@ -6108,7 +6129,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>43980</v>
       </c>
@@ -6125,7 +6146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>43981</v>
       </c>
@@ -6142,7 +6163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>43982</v>
       </c>
@@ -6159,7 +6180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>43983</v>
       </c>
@@ -6176,7 +6197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>43984</v>
       </c>
@@ -6193,7 +6214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>43985</v>
       </c>
@@ -6210,7 +6231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>43986</v>
       </c>
@@ -6227,7 +6248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>43987</v>
       </c>
@@ -6244,7 +6265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>43988</v>
       </c>
@@ -6261,7 +6282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>43989</v>
       </c>
@@ -6278,7 +6299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>43990</v>
       </c>
@@ -6295,7 +6316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>43991</v>
       </c>
@@ -6312,7 +6333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>43992</v>
       </c>
@@ -6329,7 +6350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>43993</v>
       </c>
@@ -6346,7 +6367,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>43994</v>
       </c>
@@ -6363,7 +6384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>43995</v>
       </c>
@@ -6380,7 +6401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>43996</v>
       </c>
@@ -6397,7 +6418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>43997</v>
       </c>
@@ -6414,7 +6435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>43998</v>
       </c>
@@ -6431,7 +6452,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>338</v>
       </c>
@@ -6448,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>43999</v>
       </c>
@@ -6465,7 +6486,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>44000</v>
       </c>
@@ -6482,7 +6503,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>44001</v>
       </c>
@@ -6499,7 +6520,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>44002</v>
       </c>
@@ -6516,7 +6537,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>44003</v>
       </c>
@@ -6533,7 +6554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>44004</v>
       </c>
@@ -6550,7 +6571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>44005</v>
       </c>
@@ -6567,7 +6588,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>44006</v>
       </c>
@@ -6584,7 +6605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>44007</v>
       </c>
@@ -6601,7 +6622,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>44008</v>
       </c>
@@ -6618,7 +6639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>44009</v>
       </c>
@@ -6635,7 +6656,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>44010</v>
       </c>
@@ -6652,7 +6673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>44011</v>
       </c>
@@ -6669,7 +6690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>44012</v>
       </c>
@@ -6686,7 +6707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>44013</v>
       </c>
@@ -6703,7 +6724,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>44014</v>
       </c>
@@ -6720,7 +6741,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>44015</v>
       </c>
@@ -6737,7 +6758,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>44016</v>
       </c>
@@ -6754,7 +6775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>44017</v>
       </c>
@@ -6771,7 +6792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>44018</v>
       </c>
@@ -6788,7 +6809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>44019</v>
       </c>
@@ -6805,7 +6826,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>44020</v>
       </c>
@@ -6822,7 +6843,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>44021</v>
       </c>
@@ -6839,7 +6860,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>44022</v>
       </c>
@@ -6856,7 +6877,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>44023</v>
       </c>
@@ -6873,7 +6894,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>44024</v>
       </c>
@@ -6890,7 +6911,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>44025</v>
       </c>
@@ -6907,7 +6928,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>44026</v>
       </c>
@@ -6924,64 +6945,95 @@
         <v>87</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="6">
+    <row r="116" spans="1:6" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B116" s="4">
+        <f>B115-3484</f>
+        <v>271574</v>
+      </c>
+      <c r="C116" s="4">
+        <v>3322</v>
+      </c>
+      <c r="D116" s="4">
+        <v>-3484</v>
+      </c>
+      <c r="E116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
         <v>44027</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B117" s="4">
         <v>282365</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C117" s="4">
         <v>3432</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D117" s="4">
         <v>10791</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E117" s="4">
         <v>110</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="6">
+    <row r="118" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
         <v>44028</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B118" s="4">
         <v>292656</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C118" s="4">
         <v>3561</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D118" s="4">
         <v>10291</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E118" s="4">
         <v>129</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="15" t="s">
+      <c r="F118" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-    </row>
-    <row r="120" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="15" t="s">
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+    </row>
+    <row r="121" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+    </row>
+    <row r="122" spans="1:6" ht="79" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A119:E119"/>
     <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A122:E122"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6998,19 +7050,19 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="101.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>270</v>
       </c>
@@ -7018,7 +7070,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>155937.20000000001</v>
       </c>
@@ -7026,11 +7078,11 @@
         <v>133158</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="218.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7046,34 +7098,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E24" sqref="E24"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>262</v>
       </c>
@@ -7086,7 +7138,7 @@
       <c r="D2" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>277</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -7099,7 +7151,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43925</v>
       </c>
@@ -7112,7 +7164,7 @@
       <c r="D3" s="8">
         <v>63751</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="16">
         <v>0.1056</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -7125,7 +7177,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43926</v>
       </c>
@@ -7138,7 +7190,7 @@
       <c r="D4" s="8">
         <v>70938</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="16">
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -7151,7 +7203,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43927</v>
       </c>
@@ -7164,7 +7216,7 @@
       <c r="D5" s="8">
         <v>85357</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>8.8909998585200004E-2</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -7177,7 +7229,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43928</v>
       </c>
@@ -7190,7 +7242,7 @@
       <c r="D6" s="8">
         <v>88649</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="16">
         <v>0.1094</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -7203,7 +7255,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43929</v>
       </c>
@@ -7216,7 +7268,7 @@
       <c r="D7" s="8">
         <v>96258</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <v>0.11070000000000001</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -7229,7 +7281,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43930</v>
       </c>
@@ -7242,7 +7294,7 @@
       <c r="D8" s="8">
         <v>106134</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <v>0.100351636462</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -7255,7 +7307,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43931</v>
       </c>
@@ -7268,7 +7320,7 @@
       <c r="D9" s="8">
         <v>115918</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>0.1055125178708</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -7281,7 +7333,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43932</v>
       </c>
@@ -7294,7 +7346,7 @@
       <c r="D10" s="8">
         <v>120533</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>0.11360000000000001</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -7307,7 +7359,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43933</v>
       </c>
@@ -7320,7 +7372,7 @@
       <c r="D11" s="8">
         <v>124553</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <v>0.12479999999999999</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -7333,7 +7385,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43934</v>
       </c>
@@ -7346,7 +7398,7 @@
       <c r="D12" s="8">
         <v>133226</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>0.1386</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -7359,7 +7411,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>43935</v>
       </c>
@@ -7372,7 +7424,7 @@
       <c r="D13" s="8">
         <v>146467</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>0.1101</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -7385,7 +7437,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43936</v>
       </c>
@@ -7398,7 +7450,7 @@
       <c r="D14" s="8">
         <v>151810</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="16">
         <v>0.1105</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -7411,7 +7463,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>43937</v>
       </c>
@@ -7424,7 +7476,7 @@
       <c r="D15" s="8">
         <v>158547</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="16">
         <v>0.1188</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -7437,7 +7489,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43938</v>
       </c>
@@ -7450,7 +7502,7 @@
       <c r="D16" s="8">
         <v>169536</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="16">
         <v>0.10630000000000001</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -7463,7 +7515,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43939</v>
       </c>
@@ -7476,7 +7528,7 @@
       <c r="D17" s="8">
         <v>176239</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="16">
         <v>0.1023</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -7489,7 +7541,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43940</v>
       </c>
@@ -7502,7 +7554,7 @@
       <c r="D18" s="8">
         <v>182710</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="16">
         <v>9.35E-2</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -7515,7 +7567,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43941</v>
       </c>
@@ -7528,7 +7580,7 @@
       <c r="D19" s="8">
         <v>190394</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="16">
         <v>9.7117268401900006E-2</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -7541,7 +7593,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43942</v>
       </c>
@@ -7554,7 +7606,7 @@
       <c r="D20" s="8">
         <v>205399</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="16">
         <v>9.4500000000000001E-2</v>
       </c>
       <c r="F20" s="8" t="s">
@@ -7567,7 +7619,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43943</v>
       </c>
@@ -7580,7 +7632,7 @@
       <c r="D21" s="8">
         <v>216783</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="16">
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="F21" s="8" t="s">
@@ -7593,7 +7645,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43944</v>
       </c>
@@ -7606,7 +7658,7 @@
       <c r="D22" s="8">
         <v>225078</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="16">
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="F22" s="8" t="s">
@@ -7619,7 +7671,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43945</v>
       </c>
@@ -7632,7 +7684,7 @@
       <c r="D23" s="8">
         <v>242547</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="16">
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -7645,7 +7697,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43946</v>
       </c>
@@ -7658,7 +7710,7 @@
       <c r="D24" s="8">
         <v>262816</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="16">
         <v>6.3700000000000007E-2</v>
       </c>
       <c r="F24" s="8" t="s">
@@ -7671,7 +7723,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>43947</v>
       </c>
@@ -7684,7 +7736,7 @@
       <c r="D25" s="8">
         <v>276021</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="16">
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="F25" s="8" t="s">
@@ -7697,7 +7749,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>43948</v>
       </c>
@@ -7710,7 +7762,7 @@
       <c r="D26" s="8">
         <v>290517</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="F26" s="8" t="s">
@@ -7723,7 +7775,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>43949</v>
       </c>
@@ -7736,7 +7788,7 @@
       <c r="D27" s="8">
         <v>300384</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="16">
         <v>6.2899999999999998E-2</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -7749,7 +7801,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43950</v>
       </c>
@@ -7762,7 +7814,7 @@
       <c r="D28" s="8">
         <v>314790</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="16">
         <v>6.10670666381E-2</v>
       </c>
       <c r="F28" s="8" t="s">
@@ -7775,7 +7827,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>43951</v>
       </c>
@@ -7788,7 +7840,7 @@
       <c r="D29" s="8">
         <v>330300</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="16">
         <v>5.8381327098900003E-2</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -7801,7 +7853,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43952</v>
       </c>
@@ -7814,7 +7866,7 @@
       <c r="D30" s="8">
         <v>351775</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="16">
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="F30" s="8" t="s">
@@ -7827,7 +7879,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>43953</v>
       </c>
@@ -7840,7 +7892,7 @@
       <c r="D31" s="8">
         <v>380648</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="16">
         <v>5.7299999999999997E-2</v>
       </c>
       <c r="F31" s="8" t="s">
@@ -7853,7 +7905,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43954</v>
       </c>
@@ -7866,7 +7918,7 @@
       <c r="D32" s="8">
         <v>390560</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="16">
         <v>6.0400000000000002E-2</v>
       </c>
       <c r="F32" s="8" t="s">
@@ -7879,7 +7931,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>43955</v>
       </c>
@@ -7892,7 +7944,7 @@
       <c r="D33" s="8">
         <v>407398</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="16">
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="F33" s="8" t="s">
@@ -7905,7 +7957,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>43956</v>
       </c>
@@ -7918,7 +7970,7 @@
       <c r="D34" s="8">
         <v>427210</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="16">
         <v>5.6754924069199998E-2</v>
       </c>
       <c r="F34" s="8" t="s">
@@ -7931,7 +7983,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>43957</v>
       </c>
@@ -7944,7 +7996,7 @@
       <c r="D35" s="8">
         <v>438938</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="16">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F35" s="8" t="s">
@@ -7957,7 +8009,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43958</v>
       </c>
@@ -7970,7 +8022,7 @@
       <c r="D36" s="8">
         <v>455162</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="16">
         <v>5.8500000000000003E-2</v>
       </c>
       <c r="F36" s="8" t="s">
@@ -7983,7 +8035,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>43959</v>
       </c>
@@ -7996,7 +8048,7 @@
       <c r="D37" s="8">
         <v>477118</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="16">
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="F37" s="8" t="s">
@@ -8009,7 +8061,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>43960</v>
       </c>
@@ -8022,7 +8074,7 @@
       <c r="D38" s="8">
         <v>489294</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="16">
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="F38" s="8" t="s">
@@ -8035,7 +8087,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>43961</v>
       </c>
@@ -8048,7 +8100,7 @@
       <c r="D39" s="8">
         <v>513978</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="16">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F39" s="8" t="s">
@@ -8061,7 +8113,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43962</v>
       </c>
@@ -8074,7 +8126,7 @@
       <c r="D40" s="8">
         <v>525697</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="16">
         <v>6.3711443038399998E-2</v>
       </c>
       <c r="F40" s="8" t="s">
@@ -8087,7 +8139,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>43963</v>
       </c>
@@ -8100,7 +8152,7 @@
       <c r="D41" s="8">
         <v>538172</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="16">
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="F41" s="8" t="s">
@@ -8113,7 +8165,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43964</v>
       </c>
@@ -8126,7 +8178,7 @@
       <c r="D42" s="8">
         <v>587431</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="16">
         <v>5.3699999999999998E-2</v>
       </c>
       <c r="F42" s="8" t="s">
@@ -8139,7 +8191,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43965</v>
       </c>
@@ -8152,7 +8204,7 @@
       <c r="D43" s="8">
         <v>623284</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="16">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="F43" s="8" t="s">
@@ -8165,7 +8217,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43966</v>
       </c>
@@ -8178,7 +8230,7 @@
       <c r="D44" s="8">
         <v>645992</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="16">
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="F44" s="8" t="s">
@@ -8191,7 +8243,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>43967</v>
       </c>
@@ -8204,7 +8256,7 @@
       <c r="D45" s="8">
         <v>678471</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="16">
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="F45" s="8">
@@ -8217,7 +8269,7 @@
         <v>27025</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>43968</v>
       </c>
@@ -8230,7 +8282,7 @@
       <c r="D46" s="8">
         <v>693276</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="16">
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="F46" s="8">
@@ -8243,7 +8295,7 @@
         <v>25614</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>43969</v>
       </c>
@@ -8256,7 +8308,7 @@
       <c r="D47" s="8">
         <v>723013</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="16">
         <v>4.4720144337000001E-2</v>
       </c>
       <c r="F47" s="8">
@@ -8269,7 +8321,7 @@
         <v>28188</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>43970</v>
       </c>
@@ -8282,7 +8334,7 @@
       <c r="D48" s="8">
         <v>744937</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="16">
         <v>4.7E-2</v>
       </c>
       <c r="F48" s="8">
@@ -8295,7 +8347,7 @@
         <v>29538</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>43971</v>
       </c>
@@ -8308,7 +8360,7 @@
       <c r="D49" s="8">
         <v>770241</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="16">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="F49" s="8">
@@ -8321,7 +8373,7 @@
         <v>26116</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>43972</v>
       </c>
@@ -8334,7 +8386,7 @@
       <c r="D50" s="8">
         <v>800433</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="16">
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="F50" s="8">
@@ -8347,7 +8399,7 @@
         <v>25307</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>43973</v>
       </c>
@@ -8360,7 +8412,7 @@
       <c r="D51" s="8">
         <v>834437</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="16">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="F51" s="8">
@@ -8373,7 +8425,7 @@
         <v>26921</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>43974</v>
       </c>
@@ -8386,7 +8438,7 @@
       <c r="D52" s="8">
         <v>870935</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="16" t="s">
         <v>267</v>
       </c>
       <c r="F52" s="8" t="s">
@@ -8399,7 +8451,7 @@
         <v>27495</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>43975</v>
       </c>
@@ -8412,7 +8464,7 @@
       <c r="D53" s="8">
         <v>886354</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="16">
         <v>4.87E-2</v>
       </c>
       <c r="F53" s="8">
@@ -8425,7 +8477,7 @@
         <v>27583</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>43976</v>
       </c>
@@ -8438,7 +8490,7 @@
       <c r="D54" s="8">
         <v>906074</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="16">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="F54" s="8">
@@ -8451,7 +8503,7 @@
         <v>26152</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>43977</v>
       </c>
@@ -8464,7 +8516,7 @@
       <c r="D55" s="8">
         <v>943239</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="16">
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="F55" s="8">
@@ -8477,7 +8529,7 @@
         <v>28329</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>43978</v>
       </c>
@@ -8490,7 +8542,7 @@
       <c r="D56" s="8">
         <v>961861</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="16">
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="F56" s="8">
@@ -8503,7 +8555,7 @@
         <v>27374</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>43979</v>
       </c>
@@ -8516,7 +8568,7 @@
       <c r="D57" s="8">
         <v>989994</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="16">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="F57" s="8">
@@ -8529,7 +8581,7 @@
         <v>27080</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>43980</v>
       </c>
@@ -8542,7 +8594,7 @@
       <c r="D58" s="8">
         <v>1027449</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="16">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="F58" s="8">
@@ -8555,7 +8607,7 @@
         <v>27573</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>43981</v>
       </c>
@@ -8568,7 +8620,7 @@
       <c r="D59" s="8">
         <v>1054793</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="16" t="s">
         <v>267</v>
       </c>
       <c r="F59" s="8" t="s">
@@ -8581,7 +8633,7 @@
         <v>26265</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>43982</v>
       </c>
@@ -8594,7 +8646,7 @@
       <c r="D60" s="8">
         <v>1073491</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="16">
         <v>5.43810873784E-2</v>
       </c>
       <c r="F60" s="8">
@@ -8607,7 +8659,7 @@
         <v>26734</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>43983</v>
       </c>
@@ -8620,7 +8672,7 @@
       <c r="D61" s="8">
         <v>1093676</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="16">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F61" s="8">
@@ -8633,7 +8685,7 @@
         <v>26800</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>43984</v>
       </c>
@@ -8646,7 +8698,7 @@
       <c r="D62" s="8">
         <v>1117274</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="16">
         <v>6.6236912120929997E-2</v>
       </c>
       <c r="F62" s="8">
@@ -8659,7 +8711,7 @@
         <v>24862</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>43985</v>
       </c>
@@ -8672,7 +8724,7 @@
       <c r="D63" s="8">
         <v>1150868</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="16">
         <v>6.2599418158070005E-2</v>
       </c>
       <c r="F63" s="8">
@@ -8685,7 +8737,7 @@
         <v>27001</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>43986</v>
       </c>
@@ -8698,7 +8750,7 @@
       <c r="D64" s="8">
         <v>1174948</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E64" s="16">
         <v>6.0272963321670002E-2</v>
       </c>
       <c r="F64" s="8">
@@ -8711,7 +8763,7 @@
         <v>26422</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>43987</v>
       </c>
@@ -8724,7 +8776,7 @@
       <c r="D65" s="8">
         <v>1209187</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="16">
         <v>6.4378489924740004E-2</v>
       </c>
       <c r="F65" s="8">
@@ -8737,7 +8789,7 @@
         <v>25963</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>43988</v>
       </c>
@@ -8750,7 +8802,7 @@
       <c r="D66" s="8">
         <v>1218955</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E66" s="16">
         <v>8.0023118582630004E-2</v>
       </c>
       <c r="F66" s="8">
@@ -8763,7 +8815,7 @@
         <v>23452</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>43989</v>
       </c>
@@ -8776,7 +8828,7 @@
       <c r="D67" s="8">
         <v>1255899</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="16">
         <v>7.11381708088E-2</v>
       </c>
       <c r="F67" s="8">
@@ -8789,7 +8841,7 @@
         <v>26058</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>43990</v>
       </c>
@@ -8802,7 +8854,7 @@
       <c r="D68" s="8">
         <v>1286139</v>
       </c>
-      <c r="E68" s="18">
+      <c r="E68" s="16">
         <v>6.6629016142149999E-2</v>
       </c>
       <c r="F68" s="8">
@@ -8815,7 +8867,7 @@
         <v>27495</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>43991</v>
       </c>
@@ -8828,7 +8880,7 @@
       <c r="D69" s="8">
         <v>1302049</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="16">
         <v>6.9239691807229997E-2</v>
       </c>
       <c r="F69" s="8">
@@ -8841,7 +8893,7 @@
         <v>26396</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>43992</v>
       </c>
@@ -8854,7 +8906,7 @@
       <c r="D70" s="8">
         <v>1348893</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E70" s="16">
         <v>6.8464816856909999E-2</v>
       </c>
       <c r="F70" s="8">
@@ -8867,7 +8919,7 @@
         <v>28289</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>43993</v>
       </c>
@@ -8880,7 +8932,7 @@
       <c r="D71" s="8">
         <v>1370131</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="16">
         <v>7.0522006760149997E-2</v>
       </c>
       <c r="F71" s="8">
@@ -8893,7 +8945,7 @@
         <v>27883</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>43994</v>
       </c>
@@ -8906,7 +8958,7 @@
       <c r="D72" s="8">
         <v>1404369</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E72" s="16">
         <v>7.2239317057989999E-2</v>
       </c>
       <c r="F72" s="8">
@@ -8919,7 +8971,7 @@
         <v>27883</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>43995</v>
       </c>
@@ -8932,7 +8984,7 @@
       <c r="D73" s="8">
         <v>1442950</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E73" s="16">
         <v>6.1077310009760001E-2</v>
       </c>
       <c r="F73" s="8">
@@ -8945,7 +8997,7 @@
         <v>31999</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>43996</v>
       </c>
@@ -8958,7 +9010,7 @@
       <c r="D74" s="8">
         <v>1463851</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E74" s="16">
         <v>6.6219239373599997E-2</v>
       </c>
       <c r="F74" s="8">
@@ -8971,7 +9023,7 @@
         <v>29707</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>43997</v>
       </c>
@@ -8984,7 +9036,7 @@
       <c r="D75" s="8">
         <v>1499015</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E75" s="16">
         <v>6.7095336844249995E-2</v>
       </c>
       <c r="F75" s="8">
@@ -8997,7 +9049,7 @@
         <v>30411</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>43998</v>
       </c>
@@ -9010,7 +9062,7 @@
       <c r="D76" s="8">
         <v>1522434</v>
       </c>
-      <c r="E76" s="18">
+      <c r="E76" s="16">
         <v>6.9417073042089994E-2</v>
       </c>
       <c r="F76" s="8">
@@ -9023,7 +9075,7 @@
         <v>31484</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>43999</v>
       </c>
@@ -9036,7 +9088,7 @@
       <c r="D77" s="8">
         <v>1560537</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E77" s="16">
         <v>7.497728638027E-2</v>
       </c>
       <c r="F77" s="8">
@@ -9049,7 +9101,7 @@
         <v>30235</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>44000</v>
       </c>
@@ -9062,7 +9114,7 @@
       <c r="D78" s="8">
         <v>1576925</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E78" s="16">
         <v>8.5257188117199997E-2</v>
       </c>
       <c r="F78" s="8">
@@ -9075,7 +9127,7 @@
         <v>29542</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>44001</v>
       </c>
@@ -9088,7 +9140,7 @@
       <c r="D79" s="8">
         <v>1622851</v>
       </c>
-      <c r="E79" s="18">
+      <c r="E79" s="16">
         <v>8.9369161754789997E-2</v>
       </c>
       <c r="F79" s="8">
@@ -9101,7 +9153,7 @@
         <v>31212</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>44002</v>
       </c>
@@ -9114,7 +9166,7 @@
       <c r="D80" s="8">
         <v>1690124</v>
       </c>
-      <c r="E80" s="18">
+      <c r="E80" s="16">
         <v>8.7959443433230006E-2</v>
       </c>
       <c r="F80" s="8">
@@ -9127,7 +9179,7 @@
         <v>35311</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>44003</v>
       </c>
@@ -9140,7 +9192,7 @@
       <c r="D81" s="8">
         <v>1715177</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E81" s="16">
         <v>9.5100000000000004E-2</v>
       </c>
       <c r="F81" s="8">
@@ -9153,7 +9205,7 @@
         <v>35904</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>44004</v>
       </c>
@@ -9166,7 +9218,7 @@
       <c r="D82" s="8">
         <v>1767701</v>
       </c>
-      <c r="E82" s="18">
+      <c r="E82" s="16">
         <v>9.6402615600719999E-2</v>
       </c>
       <c r="F82" s="8">
@@ -9179,7 +9231,7 @@
         <v>38384</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>44005</v>
       </c>
@@ -9192,7 +9244,7 @@
       <c r="D83" s="8">
         <v>1805642</v>
       </c>
-      <c r="E83" s="18">
+      <c r="E83" s="16">
         <v>0.10422837848208</v>
       </c>
       <c r="F83" s="8">
@@ -9205,7 +9257,7 @@
         <v>40458</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>44006</v>
       </c>
@@ -9218,7 +9270,7 @@
       <c r="D84" s="8">
         <v>1836037</v>
       </c>
-      <c r="E84" s="18">
+      <c r="E84" s="16">
         <v>0.11759188232068001</v>
       </c>
       <c r="F84" s="8">
@@ -9231,7 +9283,7 @@
         <v>39357</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>44007</v>
       </c>
@@ -9244,7 +9296,7 @@
       <c r="D85" s="8">
         <v>1875197</v>
       </c>
-      <c r="E85" s="18">
+      <c r="E85" s="16">
         <v>0.11727744861385</v>
       </c>
       <c r="F85" s="8">
@@ -9257,7 +9309,7 @@
         <v>42610</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>44008</v>
       </c>
@@ -9270,7 +9322,7 @@
       <c r="D86" s="8">
         <v>1903661</v>
       </c>
-      <c r="E86" s="18">
+      <c r="E86" s="16">
         <v>0.13228718565458999</v>
       </c>
       <c r="F86" s="8">
@@ -9283,7 +9335,7 @@
         <v>40116</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>44009</v>
       </c>
@@ -9296,7 +9348,7 @@
       <c r="D87" s="8">
         <v>1959617</v>
       </c>
-      <c r="E87" s="18">
+      <c r="E87" s="16">
         <v>0.14309405354181001</v>
       </c>
       <c r="F87" s="8">
@@ -9309,7 +9361,7 @@
         <v>38499</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>44010</v>
       </c>
@@ -9322,7 +9374,7 @@
       <c r="D88" s="8">
         <v>2006724</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E88" s="16">
         <v>0.13739729069508999</v>
       </c>
       <c r="F88" s="8">
@@ -9335,7 +9387,7 @@
         <v>41650</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>44011</v>
       </c>
@@ -9348,7 +9400,7 @@
       <c r="D89" s="8">
         <v>2061939</v>
       </c>
-      <c r="E89" s="18">
+      <c r="E89" s="16">
         <v>0.14018794670431001</v>
       </c>
       <c r="F89" s="8">
@@ -9361,7 +9413,7 @@
         <v>42034</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>44012</v>
       </c>
@@ -9374,7 +9426,7 @@
       <c r="D90" s="8">
         <v>2119036</v>
       </c>
-      <c r="E90" s="18">
+      <c r="E90" s="16">
         <v>0.13581542048065001</v>
       </c>
       <c r="F90" s="8">
@@ -9387,7 +9439,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>44013</v>
       </c>
@@ -9400,7 +9452,7 @@
       <c r="D91" s="8">
         <v>2174548</v>
       </c>
-      <c r="E91" s="18">
+      <c r="E91" s="16">
         <v>0.13316248660981</v>
       </c>
       <c r="F91" s="8">
@@ -9413,7 +9465,7 @@
         <v>48359</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>44014</v>
       </c>
@@ -9426,7 +9478,7 @@
       <c r="D92" s="8">
         <v>2212947</v>
       </c>
-      <c r="E92" s="18">
+      <c r="E92" s="16">
         <v>0.13917844913637001</v>
       </c>
       <c r="F92" s="8">
@@ -9439,7 +9491,7 @@
         <v>48250</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>44015</v>
       </c>
@@ -9452,7 +9504,7 @@
       <c r="D93" s="8">
         <v>2273591</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E93" s="16">
         <v>0.13154795505798</v>
       </c>
       <c r="F93" s="8">
@@ -9465,7 +9517,7 @@
         <v>52847</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>44016</v>
       </c>
@@ -9478,7 +9530,7 @@
       <c r="D94" s="8">
         <v>2338098</v>
       </c>
-      <c r="E94" s="18">
+      <c r="E94" s="16">
         <v>0.13517270641306001</v>
       </c>
       <c r="F94" s="8">
@@ -9491,7 +9543,7 @@
         <v>54069</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>44017</v>
       </c>
@@ -9504,7 +9556,7 @@
       <c r="D95" s="8">
         <v>2371709</v>
       </c>
-      <c r="E95" s="18">
+      <c r="E95" s="16">
         <v>0.13500899750392001</v>
       </c>
       <c r="F95" s="8">
@@ -9517,7 +9569,7 @@
         <v>52141</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>44018</v>
       </c>
@@ -9530,7 +9582,7 @@
       <c r="D96" s="8">
         <v>2431861</v>
       </c>
-      <c r="E96" s="18">
+      <c r="E96" s="16">
         <v>0.13507194500078001</v>
       </c>
       <c r="F96" s="8">
@@ -9543,7 +9595,7 @@
         <v>52846</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>44019</v>
       </c>
@@ -9556,7 +9608,7 @@
       <c r="D97" s="8">
         <v>2471029</v>
       </c>
-      <c r="E97" s="18">
+      <c r="E97" s="16">
         <v>0.15025240527379</v>
       </c>
       <c r="F97" s="8">
@@ -9569,7 +9621,7 @@
         <v>50285</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>44020</v>
       </c>
@@ -9582,7 +9634,7 @@
       <c r="D98" s="8">
         <v>2526940</v>
       </c>
-      <c r="E98" s="18">
+      <c r="E98" s="16">
         <v>0.15560343677850999</v>
       </c>
       <c r="F98" s="8">
@@ -9595,7 +9647,7 @@
         <v>50342</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>44021</v>
       </c>
@@ -9608,7 +9660,7 @@
       <c r="D99" s="8">
         <v>2603903</v>
       </c>
-      <c r="E99" s="18">
+      <c r="E99" s="16">
         <v>0.14464341297691</v>
       </c>
       <c r="F99" s="8">
@@ -9621,7 +9673,7 @@
         <v>55851</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>44022</v>
       </c>
@@ -9634,7 +9686,7 @@
       <c r="D100" s="8">
         <v>2644496</v>
       </c>
-      <c r="E100" s="18">
+      <c r="E100" s="16">
         <v>0.15812361136340999</v>
       </c>
       <c r="F100" s="8">
@@ -9647,7 +9699,7 @@
         <v>52986</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>44023</v>
       </c>
@@ -9660,7 +9712,7 @@
       <c r="D101" s="8">
         <v>2710290</v>
       </c>
-      <c r="E101" s="18">
+      <c r="E101" s="16">
         <v>0.16329665986635</v>
       </c>
       <c r="F101" s="8">
@@ -9673,7 +9725,7 @@
         <v>53170</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>44024</v>
       </c>
@@ -9686,7 +9738,7 @@
       <c r="D102" s="8">
         <v>2757859</v>
       </c>
-      <c r="E102" s="18">
+      <c r="E102" s="16">
         <v>0.16849010085123001</v>
       </c>
       <c r="F102" s="8">
@@ -9699,7 +9751,7 @@
         <v>55164</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>44025</v>
       </c>
@@ -9712,7 +9764,7 @@
       <c r="D103" s="8">
         <v>2820803</v>
       </c>
-      <c r="E103" s="18">
+      <c r="E103" s="16">
         <v>0.16893795062441999</v>
       </c>
       <c r="F103" s="8">
@@ -9725,7 +9777,7 @@
         <v>55563</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>44026</v>
       </c>
@@ -9738,7 +9790,7 @@
       <c r="D104" s="8">
         <v>2864541</v>
       </c>
-      <c r="E104" s="18">
+      <c r="E104" s="16">
         <v>0.16812128576681001</v>
       </c>
       <c r="F104" s="8">
@@ -9751,7 +9803,7 @@
         <v>56216</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>44027</v>
       </c>
@@ -9764,7 +9816,7 @@
       <c r="D105" s="8">
         <v>2924288</v>
       </c>
-      <c r="E105" s="18">
+      <c r="E105" s="16">
         <v>0.16885085207802</v>
       </c>
       <c r="F105" s="8">
@@ -9777,7 +9829,7 @@
         <v>56764</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>44028</v>
       </c>
@@ -9790,7 +9842,7 @@
       <c r="D106" s="8">
         <v>2992102</v>
       </c>
-      <c r="E106" s="18" t="s">
+      <c r="E106" s="16" t="s">
         <v>267</v>
       </c>
       <c r="F106" s="8" t="s">
@@ -9803,29 +9855,29 @@
         <v>267</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="15" t="s">
+    <row r="108" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-    </row>
-    <row r="109" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="15" t="s">
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+    </row>
+    <row r="109" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9848,19 +9900,19 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>284</v>
       </c>
@@ -9868,7 +9920,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>286</v>
       </c>
@@ -9876,7 +9928,7 @@
         <v>110767</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>287</v>
       </c>
@@ -9884,7 +9936,7 @@
         <v>2881335</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>288</v>
       </c>
@@ -9892,11 +9944,11 @@
         <v>2992102</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9918,19 +9970,19 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>291</v>
       </c>
@@ -9938,7 +9990,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>292</v>
       </c>
@@ -9946,7 +9998,7 @@
         <v>224433</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>293</v>
       </c>
@@ -9954,11 +10006,11 @@
         <v>7806</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9980,19 +10032,19 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>295</v>
       </c>
@@ -10000,7 +10052,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>296</v>
       </c>
@@ -10008,7 +10060,7 @@
         <v>10457</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>297</v>
       </c>
@@ -10016,7 +10068,7 @@
         <v>57148</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>298</v>
       </c>
@@ -10024,7 +10076,7 @@
         <v>10759</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>299</v>
       </c>
@@ -10032,7 +10084,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>300</v>
       </c>
@@ -10059,21 +10111,21 @@
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>302</v>
       </c>
@@ -10084,7 +10136,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -10095,7 +10147,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -10106,7 +10158,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -10117,7 +10169,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -10128,7 +10180,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -10139,7 +10191,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -10150,7 +10202,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -10161,7 +10213,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -10172,7 +10224,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -10183,7 +10235,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -10194,7 +10246,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -10205,7 +10257,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -10216,7 +10268,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -10227,7 +10279,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -10238,7 +10290,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -10249,7 +10301,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -10260,7 +10312,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -10271,7 +10323,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -10282,7 +10334,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -10293,7 +10345,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -10304,7 +10356,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -10315,7 +10367,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -10326,7 +10378,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -10337,7 +10389,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -10348,7 +10400,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -10359,7 +10411,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -10370,7 +10422,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -10381,7 +10433,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -10392,7 +10444,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -10403,7 +10455,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -10414,7 +10466,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -10425,7 +10477,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -10436,7 +10488,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -10447,7 +10499,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -10458,7 +10510,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -10469,7 +10521,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -10480,7 +10532,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -10491,7 +10543,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -10502,7 +10554,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -10513,7 +10565,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -10524,7 +10576,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -10535,7 +10587,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -10546,7 +10598,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -10557,7 +10609,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -10568,7 +10620,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -10579,7 +10631,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -10590,7 +10642,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -10601,7 +10653,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -10612,7 +10664,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -10623,7 +10675,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -10634,7 +10686,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -10645,7 +10697,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -10656,7 +10708,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -10667,7 +10719,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -10678,7 +10730,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -10689,7 +10741,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -10700,7 +10752,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -10711,7 +10763,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -10722,7 +10774,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -10733,7 +10785,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -10744,7 +10796,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -10755,7 +10807,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -10766,7 +10818,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -10777,7 +10829,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -10788,7 +10840,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -10799,7 +10851,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -10810,7 +10862,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -10821,7 +10873,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -10832,7 +10884,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -10843,7 +10895,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -10854,7 +10906,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -10865,7 +10917,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -10876,7 +10928,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -10887,7 +10939,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -10898,7 +10950,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -10909,7 +10961,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -10920,7 +10972,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -10931,7 +10983,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -10942,7 +10994,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -10953,7 +11005,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -10964,7 +11016,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -10975,7 +11027,7 @@
         <v>4092</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -10986,7 +11038,7 @@
         <v>4389</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -10997,7 +11049,7 @@
         <v>4739</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -11008,7 +11060,7 @@
         <v>5102</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -11019,7 +11071,7 @@
         <v>5523</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -11030,7 +11082,7 @@
         <v>5497</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -11041,7 +11093,7 @@
         <v>5913</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -11052,7 +11104,7 @@
         <v>6533</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -11063,7 +11115,7 @@
         <v>6904</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -11074,7 +11126,7 @@
         <v>7382</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -11085,7 +11137,7 @@
         <v>7652</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -11096,7 +11148,7 @@
         <v>7890</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -11107,7 +11159,7 @@
         <v>8181</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -11118,7 +11170,7 @@
         <v>8698</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -11129,7 +11181,7 @@
         <v>9286</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -11140,7 +11192,7 @@
         <v>9610</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -11151,7 +11203,7 @@
         <v>9689</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -11162,7 +11214,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -11173,7 +11225,7 @@
         <v>10083</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -11184,7 +11236,7 @@
         <v>10410</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -11195,7 +11247,7 @@
         <v>10405</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -11206,7 +11258,7 @@
         <v>10569</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -11217,7 +11269,7 @@
         <v>10471</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -11247,21 +11299,21 @@
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:3" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>305</v>
       </c>
@@ -11272,180 +11324,180 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>308</v>
       </c>
       <c r="B3" s="11">
         <v>117</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>0.43429844099999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>309</v>
       </c>
       <c r="B4" s="11">
         <v>513</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>1.9042316258</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>310</v>
       </c>
       <c r="B5" s="11">
         <v>1343</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>4.9851521901</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>311</v>
       </c>
       <c r="B6" s="11">
         <v>5075</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>18.838158872000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>312</v>
       </c>
       <c r="B7" s="11">
         <v>5011</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>18.600593912000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>313</v>
       </c>
       <c r="B8" s="11">
         <v>4796</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>17.802524128000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B9" s="11">
         <v>4428</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>16.436525612000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>315</v>
       </c>
       <c r="B10" s="11">
         <v>1769</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>6.5664439495</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>316</v>
       </c>
       <c r="B11" s="11">
         <v>1289</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>4.7847067558000003</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B12" s="11">
         <v>820</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>3.0438010392999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>318</v>
       </c>
       <c r="B13" s="11">
         <v>622</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>2.3088344469000002</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>319</v>
       </c>
       <c r="B14" s="11">
         <v>1138</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <v>4.2242019301999996</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B15" s="11">
         <v>19</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="14">
         <v>7.0527097299999994E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B16" s="11">
         <v>26940</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="1:3" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="15" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-    </row>
-    <row r="20" spans="1:3" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="15" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
